--- a/company_1.xlsx
+++ b/company_1.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
+  <si>
+    <t>Время входа</t>
+  </si>
   <si>
     <t>Компания</t>
   </si>
@@ -22,67 +25,52 @@
     <t>Тип компании</t>
   </si>
   <si>
-    <t>Менеджер</t>
-  </si>
-  <si>
-    <t>Контакты</t>
+    <t>Контакт/менеджер</t>
   </si>
   <si>
     <t>Сфера деятельности</t>
   </si>
   <si>
-    <t>Оптимальный бентонит</t>
-  </si>
-  <si>
-    <t>Производитель ОБ</t>
-  </si>
-  <si>
-    <t>Конкурентная цена</t>
-  </si>
-  <si>
-    <t>Ожидания от продукта</t>
-  </si>
-  <si>
-    <t>Методики контроля</t>
-  </si>
-  <si>
-    <t>котик</t>
-  </si>
-  <si>
-    <t>Вася</t>
-  </si>
-  <si>
-    <t>Иннокентий</t>
-  </si>
-  <si>
-    <t>мародёры</t>
-  </si>
-  <si>
-    <t>кошки пришли на помощь</t>
-  </si>
-  <si>
-    <t xml:space="preserve">кошки пришли </t>
-  </si>
-  <si>
-    <t>он поехал в Краснодар</t>
-  </si>
-  <si>
-    <t>перекупщики</t>
+    <t>Продукты</t>
+  </si>
+  <si>
+    <t>2025-11-15 20:00:53.085</t>
+  </si>
+  <si>
+    <t>2025-11-15 20:01:19.201000</t>
+  </si>
+  <si>
+    <t>2025-11-15 20:44:10.398000</t>
+  </si>
+  <si>
+    <t>2025-11-17 22:05:29.494000</t>
+  </si>
+  <si>
+    <t>Мурка</t>
+  </si>
+  <si>
+    <t>медведи</t>
+  </si>
+  <si>
+    <t>bentone 38</t>
+  </si>
+  <si>
+    <t>дажа</t>
+  </si>
+  <si>
+    <t>ТД</t>
+  </si>
+  <si>
+    <t>Потребитель</t>
   </si>
   <si>
     <t>nan</t>
   </si>
   <si>
-    <t>112522.0</t>
-  </si>
-  <si>
-    <t>прпрп</t>
-  </si>
-  <si>
-    <t>2352244.0</t>
-  </si>
-  <si>
-    <t>бентониты для лакокраски</t>
+    <t>котёнок</t>
+  </si>
+  <si>
+    <t>торговля бентонитом</t>
   </si>
 </sst>
 </file>
@@ -440,13 +428,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -465,227 +453,97 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
         <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/company_1.xlsx
+++ b/company_1.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Сервис\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1FAEA8A-0BCF-4340-8081-1F6BE4D756CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Время входа</t>
   </si>
@@ -32,52 +38,13 @@
   </si>
   <si>
     <t>Продукты</t>
-  </si>
-  <si>
-    <t>2025-11-15 20:00:53.085</t>
-  </si>
-  <si>
-    <t>2025-11-15 20:01:19.201000</t>
-  </si>
-  <si>
-    <t>2025-11-15 20:44:10.398000</t>
-  </si>
-  <si>
-    <t>2025-11-17 22:05:29.494000</t>
-  </si>
-  <si>
-    <t>Мурка</t>
-  </si>
-  <si>
-    <t>медведи</t>
-  </si>
-  <si>
-    <t>bentone 38</t>
-  </si>
-  <si>
-    <t>дажа</t>
-  </si>
-  <si>
-    <t>ТД</t>
-  </si>
-  <si>
-    <t>Потребитель</t>
-  </si>
-  <si>
-    <t>nan</t>
-  </si>
-  <si>
-    <t>котёнок</t>
-  </si>
-  <si>
-    <t>торговля бентонитом</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,17 +103,25 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -184,7 +159,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -218,6 +193,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -252,9 +228,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -427,14 +404,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -454,97 +433,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="1"/>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s">
-        <v>16</v>
-      </c>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
